--- a/docs/data_dictionary_MITLivingWage.xlsx
+++ b/docs/data_dictionary_MITLivingWage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabisanches/Desktop/CIS9440 - Data Warehouse/Final_Project/CIS9440-Project-8/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A4455C-A07D-B04C-BC61-12CABF937E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8925F13B-DB8F-1344-98AF-2B605D071BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{8B64C101-B2C1-AD4F-96B6-EE8658FF7B54}"/>
   </bookViews>

--- a/docs/data_dictionary_MITLivingWage.xlsx
+++ b/docs/data_dictionary_MITLivingWage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabisanches/Desktop/CIS9440 - Data Warehouse/Final_Project/CIS9440-Project-8/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8925F13B-DB8F-1344-98AF-2B605D071BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF8B2BF-814E-1D45-8470-0C2EEAF48A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{8B64C101-B2C1-AD4F-96B6-EE8658FF7B54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B64C101-B2C1-AD4F-96B6-EE8658FF7B54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>Table 1 - Living Wage Calculation</t>
   </si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t>Table Definition: Table 1 data provides estimates for living wage, poverty wage, and minimun wage for individuals and households with one or two working adults and zero to three children. Poverty Wage and Minimun Wage are for comparison purposes only.</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Counties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County (in NY) where the data of each row refers to </t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Character</t>
   </si>
 </sst>
 </file>
@@ -380,19 +398,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,12 +425,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0406FE00-86B8-F449-9511-8EA90FD3614A}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,754 +780,899 @@
     <col min="2" max="2" width="114.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="C27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="C30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="C33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="C36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="C42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+      <c r="C48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="C51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="C61" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B62" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B63" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="14"/>
-    </row>
-    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="14"/>
+      <c r="C63" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
